--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26314,7 +26316,7 @@
         <v>54446.98812710022</v>
       </c>
       <c r="C2" t="n">
-        <v>54446.98812710023</v>
+        <v>54446.98812710022</v>
       </c>
       <c r="D2" t="n">
         <v>54446.98812710022</v>
@@ -26329,13 +26331,13 @@
         <v>54446.98812710022</v>
       </c>
       <c r="H2" t="n">
-        <v>54446.98812710023</v>
+        <v>54446.98812710022</v>
       </c>
       <c r="I2" t="n">
         <v>54446.98812710022</v>
       </c>
       <c r="J2" t="n">
-        <v>54446.98812710021</v>
+        <v>54446.98812710022</v>
       </c>
       <c r="K2" t="n">
         <v>54446.98812710022</v>
@@ -26344,16 +26346,16 @@
         <v>54446.98812710021</v>
       </c>
       <c r="M2" t="n">
+        <v>54446.98812710023</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54446.98812710021</v>
+      </c>
+      <c r="O2" t="n">
         <v>54446.98812710022</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>54446.98812710022</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54446.98812710021</v>
-      </c>
-      <c r="P2" t="n">
-        <v>54446.98812710021</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="F4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="H4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="J4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="K4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="L4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="M4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="N4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
       <c r="O4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="P4" t="n">
-        <v>22686.24505295843</v>
+        <v>22686.24505295842</v>
       </c>
     </row>
     <row r="5">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1866.85692585821</v>
+        <v>-1866.856925858207</v>
       </c>
       <c r="C6" t="n">
-        <v>-1866.856925858192</v>
+        <v>-1866.856925858199</v>
       </c>
       <c r="D6" t="n">
-        <v>-1866.85692585821</v>
+        <v>-1866.856925858199</v>
       </c>
       <c r="E6" t="n">
-        <v>31760.74307414179</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="F6" t="n">
         <v>31760.7430741418</v>
       </c>
       <c r="G6" t="n">
-        <v>31760.7430741418</v>
+        <v>31760.74307414179</v>
       </c>
       <c r="H6" t="n">
         <v>31760.7430741418</v>
@@ -26543,25 +26545,25 @@
         <v>31760.74307414179</v>
       </c>
       <c r="J6" t="n">
-        <v>31760.74307414178</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="K6" t="n">
-        <v>31760.7430741418</v>
+        <v>31760.74307414179</v>
       </c>
       <c r="L6" t="n">
         <v>31760.74307414178</v>
       </c>
       <c r="M6" t="n">
-        <v>31760.74307414179</v>
+        <v>31760.74307414181</v>
       </c>
       <c r="N6" t="n">
-        <v>31760.74307414179</v>
+        <v>31760.74307414178</v>
       </c>
       <c r="O6" t="n">
-        <v>31760.74307414178</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="P6" t="n">
-        <v>31760.74307414178</v>
+        <v>31760.7430741418</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173742.6602882675</v>
+        <v>53145.57293671542</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10713923.91809432</v>
+        <v>9144617.861409331</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21980028.75264426</v>
+        <v>20441951.88648734</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3305280.388474198</v>
+        <v>3950815.691229959</v>
       </c>
     </row>
     <row r="11">
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="25">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>81.39848696832989</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>29.81855126207272</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>68.65221300565774</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>28.9001603428925</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>60.36402868517428</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>127.8386392216614</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>121.9329941289853</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>71.03475223346511</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>367.2798525126768</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>80.20402164647913</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>346.0329249539337</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>139.9882905515334</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>40.05043309823141</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>276.6872552512491</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>276.6872552512491</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>276.6872552512491</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>44.46253968843796</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>134.0229924781231</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>274.2806499706356</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>483.1333282846729</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658996</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
   </sheetData>
@@ -9643,16 +9643,16 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O23" t="n">
-        <v>186.9547967801205</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P23" t="n">
         <v>187.8768090511565</v>
@@ -9719,10 +9719,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M24" t="n">
         <v>115.4839025616399</v>
@@ -9731,10 +9731,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
         <v>113.7351914448925</v>
@@ -9798,22 +9798,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L25" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M25" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N25" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M26" t="n">
         <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>243.917695040669</v>
       </c>
       <c r="O26" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q26" t="n">
         <v>180.6233730229902</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
@@ -9968,10 +9968,10 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>178.2368149124807</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10035,22 +10035,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L28" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M28" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N28" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O28" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>236.3425848424856</v>
       </c>
       <c r="L29" t="n">
         <v>191.5602121631146</v>
@@ -10123,13 +10123,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O29" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q29" t="n">
         <v>180.6233730229902</v>
@@ -10199,19 +10199,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O30" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10272,22 +10272,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L31" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M31" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N31" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O31" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10351,16 +10351,16 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O32" t="n">
         <v>186.9547967801205</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
@@ -10439,16 +10439,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>183.1178003332298</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10509,22 +10509,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N34" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O34" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P34" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q34" t="n">
         <v>84.9458458910769</v>
@@ -10594,19 +10594,19 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>222.0155828264754</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O35" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>184.8665114499772</v>
       </c>
       <c r="N36" t="n">
         <v>106.7151410677083</v>
@@ -10685,7 +10685,7 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10746,22 +10746,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L37" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M37" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N37" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O37" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P37" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q37" t="n">
         <v>84.9458458910769</v>
@@ -10831,16 +10831,16 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>318.1221922153587</v>
       </c>
       <c r="Q38" t="n">
         <v>180.6233730229902</v>
@@ -10910,16 +10910,16 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N39" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O39" t="n">
-        <v>115.8594486111111</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -10983,22 +10983,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M40" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N40" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O40" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q40" t="n">
         <v>84.9458458910769</v>
@@ -11062,10 +11062,10 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M41" t="n">
         <v>187.1563144971591</v>
@@ -11074,13 +11074,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P41" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11138,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>181.9580424594851</v>
       </c>
       <c r="M42" t="n">
         <v>115.4839025616399</v>
@@ -11156,10 +11156,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11220,22 +11220,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M43" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P43" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q43" t="n">
         <v>84.9458458910769</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M44" t="n">
         <v>187.1563144971591</v>
@@ -11314,10 +11314,10 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>285.7396743821413</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,16 +11375,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N45" t="n">
         <v>106.7151410677083</v>
@@ -11393,7 +11393,7 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>178.2368149124807</v>
       </c>
       <c r="Q45" t="n">
         <v>113.7351914448925</v>
@@ -11457,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>303.7909301009453</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24287,7 +24287,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D24" t="n">
         <v>137.45025063969</v>
@@ -24338,7 +24338,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -24347,13 +24347,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>119.3522551778451</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="25">
@@ -24366,16 +24366,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>14.75952479886257</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>69.55736145615076</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S25" t="n">
         <v>211.5726649703493</v>
@@ -24460,7 +24460,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>303.7909301009453</v>
       </c>
       <c r="W26" t="n">
         <v>358.909580840975</v>
@@ -24527,7 +24527,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E27" t="n">
         <v>145.5577298436975</v>
@@ -24536,10 +24536,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>30.28626587311119</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -24648,7 +24648,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S28" t="n">
         <v>211.5726649703493</v>
@@ -24657,13 +24657,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>163.7443825665971</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24694,10 +24694,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24733,10 +24733,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24764,7 +24764,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E30" t="n">
         <v>145.5577298436975</v>
@@ -24773,13 +24773,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>38.79830211394711</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -24885,16 +24885,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>28.47610867058775</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24925,16 +24925,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>271.2874077937763</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G32" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -24970,7 +24970,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U32" t="n">
         <v>252.3364829231459</v>
@@ -25001,16 +25001,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>1.720851342258271</v>
       </c>
       <c r="E33" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>7.890760075770345</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -25058,7 +25058,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
@@ -25122,19 +25122,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U34" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>138.5774964959838</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -25162,13 +25162,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H35" t="n">
         <v>329.4930616586638</v>
@@ -25207,7 +25207,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>22.0958490560165</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25301,7 +25301,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>130.2320844017427</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>31.99071933933709</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25368,13 +25368,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25402,13 +25402,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>290.4592238817534</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I38" t="n">
         <v>171.0890268032919</v>
@@ -25444,7 +25444,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U38" t="n">
         <v>252.3364829231459</v>
@@ -25484,7 +25484,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -25520,10 +25520,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995534</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>58.9596135740132</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -25532,7 +25532,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -25557,7 +25557,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>30.93846919511654</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25602,10 +25602,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25681,16 +25681,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>239.3591259397971</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25718,10 +25718,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>5.50822084796296</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -25760,7 +25760,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U42" t="n">
         <v>216.3098444776729</v>
@@ -25772,7 +25772,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y42" t="n">
         <v>190.5961130869169</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -25845,16 +25845,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>138.5774964959837</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X43" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>84.0854079222139</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25918,13 +25918,13 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -25946,19 +25946,19 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>89.05188379798973</v>
       </c>
       <c r="D45" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>45.99041570010425</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26073,13 +26073,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>92.02221006917138</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>84.0854079222139</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179356</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179353</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179356</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179356</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179354</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179354</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179354</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>285846.6876672761</v>
+        <v>407165.4233179354</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54446.98812710022</v>
+        <v>54446.98812710023</v>
       </c>
       <c r="C2" t="n">
-        <v>54446.98812710022</v>
+        <v>54446.98812710021</v>
       </c>
       <c r="D2" t="n">
         <v>54446.98812710022</v>
       </c>
       <c r="E2" t="n">
-        <v>54446.98812710022</v>
+        <v>54446.98812710021</v>
       </c>
       <c r="F2" t="n">
-        <v>54446.98812710022</v>
+        <v>54446.98812710021</v>
       </c>
       <c r="G2" t="n">
         <v>54446.98812710022</v>
@@ -26334,28 +26334,28 @@
         <v>54446.98812710022</v>
       </c>
       <c r="I2" t="n">
-        <v>54446.98812710022</v>
+        <v>77518.14111945432</v>
       </c>
       <c r="J2" t="n">
-        <v>54446.98812710022</v>
+        <v>77518.14111945432</v>
       </c>
       <c r="K2" t="n">
-        <v>54446.98812710022</v>
+        <v>77518.14111945433</v>
       </c>
       <c r="L2" t="n">
-        <v>54446.98812710021</v>
+        <v>77518.14111945432</v>
       </c>
       <c r="M2" t="n">
-        <v>54446.98812710023</v>
+        <v>77518.14111945432</v>
       </c>
       <c r="N2" t="n">
-        <v>54446.98812710021</v>
+        <v>77518.14111945433</v>
       </c>
       <c r="O2" t="n">
-        <v>54446.98812710022</v>
+        <v>77518.1411194543</v>
       </c>
       <c r="P2" t="n">
-        <v>54446.98812710022</v>
+        <v>77518.14111945432</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36093.29759057235</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="C4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="D4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="E4" t="n">
         <v>22686.24505295842</v>
@@ -26432,34 +26432,34 @@
         <v>22686.24505295842</v>
       </c>
       <c r="G4" t="n">
-        <v>22686.24505295842</v>
+        <v>22686.24505295843</v>
       </c>
       <c r="H4" t="n">
         <v>22686.24505295842</v>
       </c>
       <c r="I4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="J4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="K4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="L4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="M4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="N4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="O4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
       <c r="P4" t="n">
-        <v>22686.24505295842</v>
+        <v>32612.10586149088</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283851</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1866.856925858207</v>
+        <v>-16520.20942762106</v>
       </c>
       <c r="C6" t="n">
-        <v>-1866.856925858199</v>
+        <v>-16520.20942762107</v>
       </c>
       <c r="D6" t="n">
-        <v>-1866.856925858199</v>
+        <v>-16520.20942762107</v>
       </c>
       <c r="E6" t="n">
-        <v>31760.7430741418</v>
+        <v>17107.39057237892</v>
       </c>
       <c r="F6" t="n">
-        <v>31760.7430741418</v>
+        <v>17107.39057237892</v>
       </c>
       <c r="G6" t="n">
-        <v>31760.74307414179</v>
+        <v>17107.39057237894</v>
       </c>
       <c r="H6" t="n">
-        <v>31760.7430741418</v>
+        <v>17107.39057237894</v>
       </c>
       <c r="I6" t="n">
-        <v>31760.74307414179</v>
+        <v>-12170.36622895945</v>
       </c>
       <c r="J6" t="n">
-        <v>31760.7430741418</v>
+        <v>23922.9313616129</v>
       </c>
       <c r="K6" t="n">
-        <v>31760.74307414179</v>
+        <v>23922.93136161291</v>
       </c>
       <c r="L6" t="n">
-        <v>31760.74307414178</v>
+        <v>23922.9313616129</v>
       </c>
       <c r="M6" t="n">
-        <v>31760.74307414181</v>
+        <v>23922.9313616129</v>
       </c>
       <c r="N6" t="n">
-        <v>31760.74307414178</v>
+        <v>23922.93136161291</v>
       </c>
       <c r="O6" t="n">
-        <v>31760.7430741418</v>
+        <v>23922.93136161289</v>
       </c>
       <c r="P6" t="n">
-        <v>31760.7430741418</v>
+        <v>23922.9313616129</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>57.51958086843886</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>34.85926832931631</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
